--- a/biology/Médecine/Syndrome_post-hallucinatoire_persistant/Syndrome_post-hallucinatoire_persistant.xlsx
+++ b/biology/Médecine/Syndrome_post-hallucinatoire_persistant/Syndrome_post-hallucinatoire_persistant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome post-hallucinatoire persistant (HPPD en anglais) est un trouble de la perception caractérisé par la présence continue de perturbations visuelles similaires à celles produites par la consommation de substances hallucinogènes. L’utilisation d’hallucinogènes avant le déclenchement du trouble est nécessaire au diagnostic quoique non suffisant pour le valider.
 Aucun autre trouble mental ne peut être assimilé au diagnostic du syndrome post-hallucinatoire persistant. Le syndrome post-hallucinatoire persistant est distinct des phénomènes de flashback par sa relative permanence, alors que les flashback sont éphémères, le syndrome post-hallucinatoire persistant est persistant. Le code diagnostique DSM-IV du syndrome post-hallucinatoire persistant est le 292.89.
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux changements de la perception accompagnent le syndrome post-hallucinatoire persistant. Les symptômes typiques sont : halo entourant les objets, traînées lumineuses suivant les objets en mouvement, difficultés à distinguer les couleurs, changements de texture des objets, illusion du mouvement dans un cadre statique, neige visuelle, altérations dans les dimensions et une conscience indécise renforcée. Les altérations visuelles expérimentées par les patients atteint de syndrome post-hallucinatoire persistant ne sont pas homogènes, tant par leurs teneurs, intensité, et leur nombre.
 Les aberrations visuelles sont courantes chez les individus « sains », par exemple, persistance rétinienne après avoir fixé le soleil, taches de lumière dans une pièce obscure. Cependant chez les patients atteints de syndrome post-hallucinatoire persistant les symptômes sont si prononcés que l’individu ne peut les ignorer.
@@ -546,7 +560,9 @@
           <t>Fréquence des syndromes post-hallucinatoires persistants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne sait pas réellement comment les patients développent ce trouble. Dans leurs articles, J. Halper et P. Harrison écrivent : « les données ne nous permettent pas d’évaluer, même approximativement, la fréquence des syndromes post-hallucinatoires persistants ». Ils ont noté qu’ils ne l’avaient pas rencontré dans leurs évaluations de 500 membres de Santo Daime qui avaient consommé au moins 100 fois du cactus peyotl.
 Dans une présentation de résultats préliminaires Matthieu Baggott et ses collaborateurs de Berkeley ont constaté que des symptômes comparables aux syndromes post-hallucinatoires persistants sont arrivés à 4,1% des participants (107 sur 2 679) dans une enquête basée sur le web de consommateurs d’hallucinogènes. Ces personnes ont rapporté des problèmes visuels après l’utilisation de drogues qui étaient assez graves pour qu’ils envisagent l’aide du corps médical.
@@ -582,7 +598,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît pas encore la cause des syndromes post-hallucinatoire persistant. Il est très clair que la plupart des utilisateurs d’hallucinogène ne développent pas de syndrome post-hallucinatoire persistant. Cela suggère qu’il puisse y avoir un petit sous-ensemble d’individus avec un terrain favorable à facteur inconnu.
 Il est possible que le trouble puisse avoir des composantes tant neurologiques que psychologiques avec les contributions des deux aspects au cas par cas. Les dernières recherches montrent que les symptômes du syndrome post-hallucinatoire persistant sont causés par des anomalies dans la fonction du système nerveux central et n’ont aucune origine rétinienne.
@@ -618,7 +636,9 @@
           <t>Problèmes coexistants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les problèmes visuels induits par les syndromes post-hallucinatoires persistants peuvent être le résultat d’autres maladies mentales. De ceux-ci les plus courants sont l’anxiété, les attaques de panique, la dépersonnalisation, la dépression.
 Dans l’échantillon de Baggott, les utilisateurs d’hallucinogènes avec persistance des problèmes visuels majeurs allaient plus probablement annoncer des diagnostics de dépression que chez les utilisateurs d’hallucinogènes sans problèmes visuels sérieux.
@@ -652,7 +672,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’y a aucun remède disponible pour les syndromes post-hallucinatoires persistants. Les traitements principaux cherchent à réduire les symptômes et la détresse sans traiter les causes sous-jacentes. Les benzodiazépines, incluant le clonazépam, le diazépam, l'alprazolam sont prescrits pour diminuer les angoisses (attention cependant au risque de dépendance). Certains médicaments ont été contre-indiqués sur la base de leurs effets sur les syndromes post-hallucinatoires persistants. Le neuroleptique Rispéridone est connu pour induire des symptômes proches des syndromes post-hallucinatoires persistants lors du traitement chez certaines personnes.
 Il est souvent conseillé aux patient atteints de cesser toute consommation de drogues, qui augmente souvent les visions sur le court terme. Il y a aussi des facteurs moins concrets qui peuvent augmenter les symptômes, comme la privation de sommeil et le stress. Cependant aucune étude sérieuse n’a été publiée à ce sujet.
@@ -686,7 +708,9 @@
           <t>Autres désordres avec symptômes similaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut souligner que des individus sans syndrome post-hallucinatoire persistant noteront parfois des anomalies visuelles. Celles-ci incluent des objets flottant dans le champ visuel, comme des objets sombres, particulièrement évidents en regardant le soleil, ou sur un mur blanc. De même, les lumières dans un environnement sombre peuvent causer un halo ou des traînées. La plupart des personnes ne remarqueront pas ces effets car ils y sont habitués.
 Une personne craintive d’avoir un syndrome post-hallucinatoire persistant sera sûrement beaucoup plus sensible à n’importe quelle perturbation visuelle, même si elle n’en est pas atteinte.
@@ -719,7 +743,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Hallucinogen_persisting_perception_disorder » (voir la liste des auteurs).
  Portail de la psychologie   Portail de la médecine                    </t>
